--- a/R_input_files/Second_Review_Glycosyltransferase_activity_genes_to_check_top_mean_TPM.xlsx
+++ b/R_input_files/Second_Review_Glycosyltransferase_activity_genes_to_check_top_mean_TPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RNAseq\lmpc-infection-rnaseq\R_input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D076F33-3531-4CF0-A661-FD54645AB96B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB261EA-26BD-44BC-BEC8-60E7488E6C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="307">
   <si>
     <t>GeneSymbol</t>
   </si>
@@ -622,56 +623,332 @@
     <t>ENSMUSG00000056812</t>
   </si>
   <si>
-    <t>a1-6 activity, only for N glycans</t>
-  </si>
-  <si>
-    <t>Possibly just glycolipids</t>
-  </si>
-  <si>
-    <t>a1-3 lewis x</t>
-  </si>
-  <si>
-    <t>a1-2 on Gal</t>
-  </si>
-  <si>
-    <t>O-glycan GalNAc start, Muc5Ac?</t>
-  </si>
-  <si>
-    <t>Core 1.</t>
-  </si>
-  <si>
-    <t>GalNAc b1-4 GlcNAc</t>
-  </si>
-  <si>
     <t>For N glycans</t>
   </si>
   <si>
-    <t>Chaperone for C1galt1</t>
-  </si>
-  <si>
-    <t>Gal b1-4 GlcNAc</t>
-  </si>
-  <si>
-    <t>Gal b1-3 GlcNAc, possibly alos GalNAc</t>
-  </si>
-  <si>
-    <t>GlcNAc b1-3 Gal. "Beta-1,3-N-acetylglucosaminyltransferase involved in the synthesis of poly-N-acetyllactosamine. Catalyzes the initiation and elongation of poly-N-acetyllactosamine chains. Shows a marked preference for Gal(beta1-4)Glc(NAc)-based acceptors"</t>
-  </si>
-  <si>
-    <t>GlcNAc b1-3  Gal, unclear specificity</t>
-  </si>
-  <si>
-    <t>GlcNAc b1-6 to GalNAc or Gal. Core 2 and 4, and I branch (maybe works on just Gal without GlcNAc?). Fråga Jin och Tina.</t>
-  </si>
-  <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>https://www.genome.jp/kegg-bin/show_pathway?ko00512</t>
+  </si>
+  <si>
+    <t>Kegg</t>
+  </si>
+  <si>
+    <t>Mucin O-Glycan core 2 and core 6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8K4T1/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1128/MCB.00204-09</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1074/jbc.M112367200</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5JCT0/entry</t>
+  </si>
+  <si>
+    <t>I-branching in mucin O-glycans.</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1093/glycob/cwm068</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P97402/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1172/JCI45538</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q09324/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1016/S1074-7613(00)80653-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q9JJ06/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q09200/entry </t>
+  </si>
+  <si>
+    <t>Mouse: 10.1073/pnas.93.20.10662</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5JCS9/entry</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1074/jbc.M004800200</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9JL27/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1038/srep25575</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8BGT9/entry</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1016/s0014-5793(02)03007-7</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1016/s0014-5793(99)01268-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q80VA0/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genome.jp/kegg-bin/show_pathway?ko00512 </t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1074/jbc.272.21.13843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/O08832/entry </t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1074/jbc.272.38.23503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q6PB93/entry </t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9WTS2/entry</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1093/oxfordjournals.jbchem.a021631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q6L8S8/entry </t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1093/glycob/cwl005</t>
+  </si>
+  <si>
+    <t>GalNAc b1-4 GlcNAc. Surprisingly high, only 045 might be a LacDiNAc and that one is low abundance. Indicates to me other functions than mucin o-glycosylation in these cells.</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1007/s10719-006-6216-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q812F8/entry </t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q11127/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1016/s1074-7613(01)00166-2</t>
+  </si>
+  <si>
+    <t>Both N and O glycans. a1-3 lewis x. Fuc(a1-3) to the GlcNAc in Gal(b1-4)GlcNAc. Unusual in our data, glycan 084 , 077, 034 are potentially fuxosylated by Fut4.</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P70419/entry</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1006/bbrc.1996.1613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q9JMG2/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P15535/entry </t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8C7U7/entry</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1074/jbc.274.36.25362</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1073/pnas.96.2.406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q9Z222/entry </t>
+  </si>
+  <si>
+    <t>GlcNAc b1-3 Gal. On Gal(b1-4)GlcNAc, but not Gal(b1-3)GlcNAc or Gal(b1-3)GalNAc. There are no such acceptors on glycan 085, both other glycans not in the top 5 can be glycosylated by B3gnt2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q9JI67/entry </t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1046/j.1432-1327.1999.00541.x and https://doi.org/10.1074/jbc.C000263200</t>
+  </si>
+  <si>
+    <t>Mouse for O-glycans: https://doi.org/10.1093/glycob/cww134 Human and mouse for N-glycans: https://doi.org/10.1126/science.abe0348</t>
+  </si>
+  <si>
+    <t>Synthesis_Top_5_Glycans</t>
+  </si>
+  <si>
+    <t>Top15_Genes_And_Synthesis_Top_5_Glycans</t>
+  </si>
+  <si>
+    <t>Uniprot_Mouse</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>At least 2 different activities: GlcNAc(b1-3) to Gal, either Gal(b1-4)GlcNAc or Gal(b1-3)GalNAc. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>GlcNAc b1-6 to GalNAc or Gal. Core 2 and 4, and I branch both when in LacNAc and on core 1. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>Core 1. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>Gal b1-4 GlcNAc in N-glycans. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>NOT found in Arike et al. 2017</t>
+  </si>
+  <si>
+    <t>Mucin O-glycan GalNAc start. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>a1-2 on Gal. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>Chaperone for C1galt1.Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>Gal b1-3 on to both GlcNAc and GalNAc, but prefers GlcNAc(b1-3)GalNAc = core 3. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>Arike et al. 2017 found in mouse intestine, where they remarked that it did not glycosylate O-glycans but rather glycosphingolipids</t>
+  </si>
+  <si>
+    <t>Not known to glycosylate O-glycans. Essential for synthesis of complex gangliosides. Arike et al. 2017 found in mouse intestine, where they remarked that it did not glycosylate O-glycans but rather glycosphingolipids.</t>
+  </si>
+  <si>
+    <t>a1-6 activity, only for N glycans. Arike et al. 2017 found in mouse intestine, where they remarked that it did not glycosylate O-glycans but rather N-glycans</t>
+  </si>
+  <si>
+    <t>Mucin O-glycan GalNAc start, on already glycosylated proteins. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>O-glycan start on allready glycosylated proteins. Arike et al. 2017 found in mouse intestine</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/O08912/entry</t>
+  </si>
+  <si>
+    <t>Adds sialic acid in a2-8 to another sialic acid. No such structures were detected among the O-glycans. "Alpha-2,8-sialyltransferase that prefers O-glycans to N-glycans or glycolipids as acceptor substrates. The minimal acceptor substrate is the NeuAc-alpha-2,36-Gal sequence at the non-reducing end of their carbohydrate groups."</t>
+  </si>
+  <si>
+    <t>Glycosylates_Detected_Glycans</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q91Y74/entry</t>
+  </si>
+  <si>
+    <t>Arike et al. 2017 found in mouse intestine. Add sialic acid with a2-3 linkage. High activity for type I and II disackarides Gal(b1-3)GalNAc and Gal(b1-4)GlcNAc.</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1093/glycob/7.4.469</t>
+  </si>
+  <si>
+    <t>Add sialic acid with a2-3 linkage. High activity for type I and II disackarides Gal(b1-3)GalNAc and Gal(b1-4)GlcNAc.</t>
+  </si>
+  <si>
+    <t>Add sialic acid with a2-3 linkage. High activity for Gal(b1-3)GalNAc.</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q11204/entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P97325/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P54751/entry </t>
+  </si>
+  <si>
+    <t>Sialylates lactosylcermaide, no evidence it glycosylates proteins.</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1006/bbrc.1998.9768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/O88829/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q8VIB3/entry </t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1074/jbc.274.17.11479</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1074/jbc.271.25.15109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P70277/entry </t>
+  </si>
+  <si>
+    <t>Adds sialic acid in a2-6 to GalNAc. Prefers GalNAcs allready modified by Gal or Neu5Ac(a2-3)Gal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P58158/entry </t>
+  </si>
+  <si>
+    <t>Evidence_For_Mucin_O_Glycan_Biosynthesis</t>
+  </si>
+  <si>
+    <t>Human: https://doi.org/10.1074/jbc.M113.520536</t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1002/(SICI)1097-4547(19991015)58:2&lt;318::AID-JNR12&gt;3.0.CO;2-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q9Z0F0/entry </t>
+  </si>
+  <si>
+    <t>GalNAcb1-4 to Gal in glycosphingolipids. No evidence for activity on O-glycans.</t>
+  </si>
+  <si>
+    <t>Part of proteglycan synthesis and the synthesis of glycosaminoglycans. Part of O-glycan biosynthesis, but not in mucins but rather proteoglycans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q67BJ4/entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human: https://doi.org/10.1074/jbc.M909620199 </t>
+  </si>
+  <si>
+    <t>Gal(a1-4) to lactosylcermaide, galactosylceramide. Glycosphingolipid biosynthesis, no evidence for O-glycosylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/P23336/entry </t>
+  </si>
+  <si>
+    <t>Mouse: https://doi.org/10.1093/glycob/cwg030</t>
+  </si>
+  <si>
+    <t>Gal(a1-3)Gal, Adds Gal to Gal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with a1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/uniprotkb/Q91YY2/entry </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +964,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,6 +998,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -723,19 +1020,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,15 +1374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,271 +1408,472 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>294.41503115751442</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>319.80881124000888</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>310.64108349570262</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>251.42958917347681</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>275.50186506585231</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>314.69380681253148</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>189.8889979289159</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>192.05022387350161</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>185.97005726947779</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>185.05231465645861</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>181.230234177803</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>205.14215966733849</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>122.6531224852975</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>157.34685487442181</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>126.7987951531092</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>94.456738741887619</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>110.0474420367841</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>124.61578162028501</v>
       </c>
-      <c r="I4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>105.0555538392085</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>113.9651469409862</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>124.082750963826</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>93.019420422875001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>86.240501794868578</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>107.9699490734866</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>82.2305653206203</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>69.438827595233747</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>123.2065113572428</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>82.824515407326032</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>72.343038276464981</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>63.339933966833989</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>73.71858386568087</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>73.48349551784149</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>82.924452923057871</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>74.885339533482579</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>64.925231108175836</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>72.374400245846545</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>60.274271721761451</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>64.268326871343717</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>51.71324216274671</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>58.919887151232302</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>62.044929395548877</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>64.42497302793565</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>60.202152824085182</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>64.151061484028659</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>61.048965549897801</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>54.077046314778997</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>60.363392605426633</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>61.370298166293807</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="I9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>59.662569108472347</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>64.636518753177342</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>67.565205828190813</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>54.049647972050437</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>55.093329625508218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>56.968143363434947</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1396,39 +1899,75 @@
         <v>63.924755500292008</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>54.037666869248348</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>31.952492561122181</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>28.46188058496389</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>43.545870480942128</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>124.07729689449771</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>42.150793824715869</v>
       </c>
-      <c r="I12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1454,68 +1993,122 @@
         <v>52.905733623705693</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>42.852468990792971</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>50.310509742608467</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>38.281051693612753</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>42.366177186202002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>34.071385322411629</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>49.233221009129991</v>
       </c>
-      <c r="I14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>37.583425009965659</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>39.318898352113493</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>30.28628528858864</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <v>41.173201367882022</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>37.182984339360097</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <v>39.955755701884073</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1541,389 +2134,689 @@
         <v>41.511486606748818</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>33.004544510989383</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>25.994935983843089</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>40.42727336103831</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>34.103937098098477</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>31.85640801653587</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>32.640168095431108</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>25.810025259705281</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>8.0657975908677582</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>42.604051176632233</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <v>31.165253039399669</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <v>32.497673663518427</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
         <v>14.717350828108319</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="I18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" t="s">
+        <v>246</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>23.21698443699615</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>25.097933890393879</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>16.057993200300359</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>25.532442398919621</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>23.378540644687071</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
         <v>26.0180120506798</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>19.99011937023743</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>31.408417207760511</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>29.293412543846639</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>11.272740781299969</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>10.51619474119447</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>17.459831577085591</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="I20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>17.138105175494431</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>16.71918139775104</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>19.558590668238178</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>15.11300391651624</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>18.24126480006122</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>16.058485094905478</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>14.972178273403401</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>27.127866092764009</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>9.7363105977088242</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>9.1205966870358015</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>9.1523664498945916</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>19.723751539613801</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>13.91328031992804</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>1.0826105503668531</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>58.864475422766127</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>7.5044121238292529</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>0.90429207563094383</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>1.210611427047031</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I23" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>13.47232930331252</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>9.0182601763837962</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>8.9030525162786329</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>11.925056964588711</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>20.189520499081031</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>17.325756360230429</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>13.105446253164139</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>13.1550621825254</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>12.159653415056169</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>14.623945638925809</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>12.656897525077881</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>12.93167250423547</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>12.26096529928151</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>12.58087093921727</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>10.423417021681511</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>11.5930195024409</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>14.37348758546155</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>12.3340314476063</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="I26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>10.61073221852398</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>12.45949739266506</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>9.7662327762023775</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>9.1101426748526197</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>11.239999002332009</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>10.477789246567839</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="I27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J27" t="s">
+        <v>294</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>10.38597597926613</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>11.767657603947111</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>10.76097508823235</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>8.9894857169096021</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>10.254850362597001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>10.15691112464458</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>10.32639341950876</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>11.828111623496531</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>11.57867251096623</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>7.9448366738371083</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>7.9424555342242922</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>12.33789075501967</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I29" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" t="s">
+        <v>300</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>9.4712198451014267</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>7.2933687718120259</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>17.00250318723873</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>9.1887723949089928</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>7.051176583428858</v>
       </c>
-      <c r="H30">
-        <v>6.820278288118522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J30" t="s">
+        <v>303</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1948,8 +2841,17 @@
       <c r="H31">
         <v>7.7961614324616209</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1974,8 +2876,14 @@
       <c r="H32">
         <v>10.959238186251159</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2000,8 +2908,11 @@
       <c r="H33">
         <v>7.4282563231876697</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2026,34 +2937,61 @@
       <c r="H34">
         <v>5.9400033050809293</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I34" t="s">
+        <v>257</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>6.991728187799171</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>5.7993869865966747</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>7.9897521010991328</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>6.0678186997071366</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>7.8625954143898431</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>7.2390877372030689</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2078,8 +3016,11 @@
       <c r="H36">
         <v>7.0289733805678134</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2104,8 +3045,11 @@
       <c r="H37">
         <v>7.9505364619676797</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2130,8 +3074,11 @@
       <c r="H38">
         <v>5.2916817440638351</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2156,8 +3103,11 @@
       <c r="H39">
         <v>6.6906320901956544</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2182,8 +3132,14 @@
       <c r="H40">
         <v>3.8627343868062058</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2208,8 +3164,11 @@
       <c r="H41">
         <v>4.6710986412249351</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2234,8 +3193,11 @@
       <c r="H42">
         <v>4.8078959117397417</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2260,8 +3222,11 @@
       <c r="H43">
         <v>4.2471764388783058</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2286,8 +3251,11 @@
       <c r="H44">
         <v>3.840147769361002</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2312,8 +3280,15 @@
       <c r="H45">
         <v>2.6293691520731231</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2338,8 +3313,11 @@
       <c r="H46">
         <v>2.7052888202185379</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2364,8 +3342,11 @@
       <c r="H47">
         <v>2.9794201305632639</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2390,8 +3371,14 @@
       <c r="H48">
         <v>2.2688000789525091</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>257</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2416,8 +3403,24 @@
       <c r="H49">
         <v>0.99111844981450037</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2442,34 +3445,58 @@
       <c r="H50">
         <v>1.95197124587197</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>1.7790667194698611</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>0.65501327966704992</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>4.1249683547964073</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>1.6236833364558989</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="5">
         <v>1.4581073066112491</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>1.033561319818699</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J51" t="s">
+        <v>277</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2494,8 +3521,20 @@
       <c r="H52">
         <v>1.2269383543848289</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" t="s">
+        <v>211</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2520,8 +3559,11 @@
       <c r="H53">
         <v>2.2168959482522679</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2546,8 +3588,11 @@
       <c r="H54">
         <v>1.0618710435168519</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2572,8 +3617,11 @@
       <c r="H55">
         <v>1.1167782912902151</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2598,8 +3646,11 @@
       <c r="H56">
         <v>0.95341444178024437</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2624,8 +3675,11 @@
       <c r="H57">
         <v>1.398313529545554</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2650,8 +3704,15 @@
       <c r="H58">
         <v>1.1242113217820271</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2676,8 +3737,11 @@
       <c r="H59">
         <v>1.102647277635086</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2702,8 +3766,11 @@
       <c r="H60">
         <v>0.92255504138064837</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2728,8 +3795,11 @@
       <c r="H61">
         <v>0.93610159507561996</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2754,8 +3824,11 @@
       <c r="H62">
         <v>0.71501227362559916</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2780,34 +3853,71 @@
       <c r="H63">
         <v>0.70579817889070895</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="I63" t="s">
+        <v>204</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>0.68634481100899714</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>0.49968535184129809</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
         <v>0.56789410315584854</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>0.92973164858211677</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="5">
         <v>0.83476279411063903</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <v>0.59965015735508331</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2832,8 +3942,11 @@
       <c r="H65">
         <v>0.33160794511903879</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -2858,8 +3971,14 @@
       <c r="H66">
         <v>0.36835618321816221</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>267</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -2884,8 +4003,14 @@
       <c r="H67">
         <v>0.46535010496435608</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>257</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -2910,8 +4035,11 @@
       <c r="H68">
         <v>0.64991668928327062</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -2936,8 +4064,11 @@
       <c r="H69">
         <v>0.44610688259533132</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -2962,8 +4093,11 @@
       <c r="H70">
         <v>0.45458490358398751</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -2988,8 +4122,11 @@
       <c r="H71">
         <v>0.24468631074549671</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -3014,8 +4151,11 @@
       <c r="H72">
         <v>0.32630992420936639</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -3040,8 +4180,11 @@
       <c r="H73">
         <v>5.5653044203288128E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -3066,8 +4209,11 @@
       <c r="H74">
         <v>0.31531843202547211</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -3092,8 +4238,11 @@
       <c r="H75">
         <v>8.1234579098087692E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -3118,8 +4267,11 @@
       <c r="H76">
         <v>2.4284759661467231E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3144,8 +4296,18 @@
       <c r="H77">
         <v>2.5300043110151889E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>262</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3170,8 +4332,11 @@
       <c r="H78">
         <v>0.18468590644033139</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -3196,8 +4361,11 @@
       <c r="H79">
         <v>0.1036513876900341</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3222,8 +4390,11 @@
       <c r="H80">
         <v>0.101029514476964</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3248,8 +4419,11 @@
       <c r="H81">
         <v>0.1069830394372137</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -3274,8 +4448,11 @@
       <c r="H82">
         <v>8.4574557381104185E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -3300,8 +4477,11 @@
       <c r="H83">
         <v>1.407010382452787E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -3326,8 +4506,11 @@
       <c r="H84">
         <v>9.1234267134273642E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -3352,8 +4535,11 @@
       <c r="H85">
         <v>2.1188506484470258E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -3378,8 +4564,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -3404,8 +4593,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>180</v>
       </c>
@@ -3430,8 +4622,11 @@
       <c r="H88">
         <v>1.2900624910602849E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -3456,8 +4651,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -3482,8 +4680,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -3508,8 +4709,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>188</v>
       </c>
@@ -3534,8 +4738,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -3560,8 +4767,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -3586,8 +4796,11 @@
       <c r="H94">
         <v>6.66338583971078E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -3612,8 +4825,11 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -3638,8 +4854,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -3664,8 +4883,60 @@
       <c r="H97">
         <v>0</v>
       </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L49" r:id="rId1" xr:uid="{225074F1-258B-492D-BF68-76D0B51F7107}"/>
+    <hyperlink ref="L7" r:id="rId2" xr:uid="{CCDC3603-81DE-4B2B-80CF-A93E0A3FDD6E}"/>
+    <hyperlink ref="K22" r:id="rId3" xr:uid="{9D57F2B7-FCD5-4BD6-A95F-63783E13F0B7}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{93F42B33-A197-4739-8B6C-39624B9E460B}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{23320ADE-B24D-4F21-A5B2-B01B2E7B4EB6}"/>
+    <hyperlink ref="L63" r:id="rId6" xr:uid="{788E322C-CBC7-4FFE-9070-E9723606B1C5}"/>
+    <hyperlink ref="L3" r:id="rId7" xr:uid="{9D051338-E671-4C5B-935E-6DEF5E424E2A}"/>
+    <hyperlink ref="K49" r:id="rId8" xr:uid="{0B206BA7-4C15-46A8-83BE-76DAD34853DE}"/>
+    <hyperlink ref="K3" r:id="rId9" xr:uid="{BBA60019-9065-42E6-AB61-300061D66F52}"/>
+    <hyperlink ref="L64" r:id="rId10" xr:uid="{7737C027-FD4C-46B5-A917-0C68BBEED3E9}"/>
+    <hyperlink ref="L77" r:id="rId11" xr:uid="{D3C2796C-A4D8-4B76-9155-81A0140A07EC}"/>
+    <hyperlink ref="L58" r:id="rId12" xr:uid="{3012B373-151B-4368-BC68-5451C8BED4B5}"/>
+    <hyperlink ref="L45" r:id="rId13" xr:uid="{FE026DC1-7396-49A8-A962-9DF1F1E588D0}"/>
+    <hyperlink ref="K4" r:id="rId14" xr:uid="{38A10EC9-3933-4D6C-A9E0-CC0B56B81D20}"/>
+    <hyperlink ref="K5" r:id="rId15" xr:uid="{F4116300-35AB-4AF5-8573-D65396FCCBEB}"/>
+    <hyperlink ref="K6" r:id="rId16" xr:uid="{7B08BC95-48B6-4766-A3BF-0B182876290C}"/>
+    <hyperlink ref="K7" r:id="rId17" xr:uid="{B2618E62-E96B-4765-B5B3-76012F75CB83}"/>
+    <hyperlink ref="K8" r:id="rId18" xr:uid="{B05B8877-746E-4EB6-98EB-3B5C7D46BBC6}"/>
+    <hyperlink ref="L8" r:id="rId19" xr:uid="{37365B88-1F01-4137-A1C2-EF846516ACCF}"/>
+    <hyperlink ref="L9" r:id="rId20" xr:uid="{AE204B0C-2D24-4486-AD65-5BC926101620}"/>
+    <hyperlink ref="L10" r:id="rId21" xr:uid="{50D14EE3-8ECA-41CE-8DD8-37EAF21F5CD3}"/>
+    <hyperlink ref="K9" r:id="rId22" xr:uid="{FFCC081A-00FC-47F6-8EAF-9BA1ADEA6885}"/>
+    <hyperlink ref="K10" r:id="rId23" xr:uid="{C212E455-0DD6-444A-87F3-220A39197F6B}"/>
+    <hyperlink ref="K11" r:id="rId24" xr:uid="{85D8E97A-6B92-4609-A155-17FF970DBDC5}"/>
+    <hyperlink ref="K12" r:id="rId25" xr:uid="{43408E0B-A4A5-4D80-A7CF-1EB41B5F97B8}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{06869385-7B1F-4449-BD15-87673F885ABB}"/>
+    <hyperlink ref="K14" r:id="rId27" xr:uid="{E0BEB048-55B2-468A-BE6E-7DAF4ED280BA}"/>
+    <hyperlink ref="K15" r:id="rId28" xr:uid="{DFB38ED0-5945-41B3-A793-64B27F9C2E14}"/>
+    <hyperlink ref="L16" r:id="rId29" xr:uid="{C58B8D41-D292-4C3A-A6E0-369FBE2ED107}"/>
+    <hyperlink ref="K16" r:id="rId30" xr:uid="{93AB5641-E983-46DF-8145-287E22AD4743}"/>
+    <hyperlink ref="K17" r:id="rId31" xr:uid="{248EC5BF-18C4-430D-B0AD-A7C41717F239}"/>
+    <hyperlink ref="K18" r:id="rId32" xr:uid="{3BC709E9-F164-4B0B-A44C-32F66FA6B443}"/>
+    <hyperlink ref="K19" r:id="rId33" xr:uid="{551BA806-70EF-4A0D-88EB-5E4ECF69F2FA}"/>
+    <hyperlink ref="K20" r:id="rId34" xr:uid="{B9D3AC53-2D5E-4D81-BD69-DE50533AC9A7}"/>
+    <hyperlink ref="K21" r:id="rId35" xr:uid="{46FDB124-D09A-4268-8232-3DBCE5DE23C4}"/>
+    <hyperlink ref="K23" r:id="rId36" xr:uid="{2C165595-7162-421E-99E7-3F1E83CAA4EC}"/>
+    <hyperlink ref="K35" r:id="rId37" xr:uid="{E73A66CB-DED8-4B72-94C5-129746040AF6}"/>
+    <hyperlink ref="K51" r:id="rId38" xr:uid="{57236E1A-9582-47A7-9A8E-899E84CE7F47}"/>
+    <hyperlink ref="K64" r:id="rId39" xr:uid="{FC02B841-CB86-4027-B4E5-C2323F792FAE}"/>
+    <hyperlink ref="K24" r:id="rId40" xr:uid="{7625570F-EBF6-4184-A0F7-1490EE02151B}"/>
+    <hyperlink ref="K25" r:id="rId41" xr:uid="{1312D1AD-283E-43B1-B9C9-A644057C1A36}"/>
+    <hyperlink ref="K26" r:id="rId42" xr:uid="{5C761703-7DE2-46EA-86A5-F14608CA85BE}"/>
+    <hyperlink ref="K27" r:id="rId43" xr:uid="{342B63CB-3936-4BFA-8BE2-B18DCEA3600B}"/>
+    <hyperlink ref="K28" r:id="rId44" xr:uid="{C23DF4CA-D3CB-46B2-A4D8-21FC0A649655}"/>
+    <hyperlink ref="K29" r:id="rId45" xr:uid="{9EA31D6A-19B0-4130-8524-72C74BECCAD4}"/>
+    <hyperlink ref="K30" r:id="rId46" xr:uid="{C91A0213-C478-47DC-9D94-841E5CEDBA1A}"/>
+    <hyperlink ref="K31" r:id="rId47" xr:uid="{EF866401-2F27-4268-B9CC-CA48392D7B7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>